--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H2">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I2">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J2">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.43325566666667</v>
+        <v>8.636271333333333</v>
       </c>
       <c r="N2">
-        <v>37.299767</v>
+        <v>25.908814</v>
       </c>
       <c r="O2">
-        <v>0.546647727818146</v>
+        <v>0.4432192830528932</v>
       </c>
       <c r="P2">
-        <v>0.5827022703831348</v>
+        <v>0.4476732650437067</v>
       </c>
       <c r="Q2">
-        <v>877.7552003372861</v>
+        <v>545.7035283691096</v>
       </c>
       <c r="R2">
-        <v>7899.796803035575</v>
+        <v>4911.331755321986</v>
       </c>
       <c r="S2">
-        <v>0.05676725721863901</v>
+        <v>0.04253285258721258</v>
       </c>
       <c r="T2">
-        <v>0.06289231357081118</v>
+        <v>0.04471394321383385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H3">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I3">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J3">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4136063333333333</v>
+        <v>0.4136063333333334</v>
       </c>
       <c r="N3">
         <v>1.240819</v>
       </c>
       <c r="O3">
-        <v>0.01818485587278827</v>
+        <v>0.02122655662966309</v>
       </c>
       <c r="P3">
-        <v>0.01938425107144854</v>
+        <v>0.02143986571744531</v>
       </c>
       <c r="Q3">
-        <v>29.199521003102</v>
+        <v>26.13470868899789</v>
       </c>
       <c r="R3">
-        <v>262.795689027918</v>
+        <v>235.212378200981</v>
       </c>
       <c r="S3">
-        <v>0.001888427113627129</v>
+        <v>0.002036973657474731</v>
       </c>
       <c r="T3">
-        <v>0.002092184051246763</v>
+        <v>0.002141429951392067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H4">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I4">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J4">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.416139333333334</v>
+        <v>4.863921666666666</v>
       </c>
       <c r="N4">
-        <v>10.248418</v>
+        <v>14.591765</v>
       </c>
       <c r="O4">
-        <v>0.150195962710185</v>
+        <v>0.2496197480045324</v>
       </c>
       <c r="P4">
-        <v>0.1601022450471443</v>
+        <v>0.2521282170731737</v>
       </c>
       <c r="Q4">
-        <v>241.170466151444</v>
+        <v>307.3385622990261</v>
       </c>
       <c r="R4">
-        <v>2170.534195362996</v>
+        <v>2766.047060691234</v>
       </c>
       <c r="S4">
-        <v>0.01559727117571887</v>
+        <v>0.02395437281429586</v>
       </c>
       <c r="T4">
-        <v>0.01728018082420583</v>
+        <v>0.02518275640095329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H5">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I5">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J5">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.221938</v>
+        <v>0.581589</v>
       </c>
       <c r="N5">
-        <v>8.443875999999999</v>
+        <v>1.163178</v>
       </c>
       <c r="O5">
-        <v>0.185624174115277</v>
+        <v>0.02984754064135654</v>
       </c>
       <c r="P5">
-        <v>0.1319114330133392</v>
+        <v>0.02009832225770769</v>
       </c>
       <c r="Q5">
-        <v>298.057735990812</v>
+        <v>36.749096584737</v>
       </c>
       <c r="R5">
-        <v>1788.346415944872</v>
+        <v>220.494579508422</v>
       </c>
       <c r="S5">
-        <v>0.01927635422552208</v>
+        <v>0.00286427304661777</v>
       </c>
       <c r="T5">
-        <v>0.01423748564287403</v>
+        <v>0.002007435579242679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H6">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I6">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J6">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.259609</v>
+        <v>4.989935666666667</v>
       </c>
       <c r="N6">
-        <v>6.778827</v>
+        <v>14.969807</v>
       </c>
       <c r="O6">
-        <v>0.0993472794836037</v>
+        <v>0.2560868716715548</v>
       </c>
       <c r="P6">
-        <v>0.1058998004849332</v>
+        <v>0.2586603299079663</v>
       </c>
       <c r="Q6">
-        <v>159.522461666766</v>
+        <v>315.3010592806214</v>
       </c>
       <c r="R6">
-        <v>1435.702155000894</v>
+        <v>2837.709533525593</v>
       </c>
       <c r="S6">
-        <v>0.01031683162926071</v>
+        <v>0.02457498032870293</v>
       </c>
       <c r="T6">
-        <v>0.01142999400844196</v>
+        <v>0.02583518875545799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>605.249321</v>
       </c>
       <c r="I7">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J7">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.43325566666667</v>
+        <v>8.636271333333333</v>
       </c>
       <c r="N7">
-        <v>37.299767</v>
+        <v>25.908814</v>
       </c>
       <c r="O7">
-        <v>0.546647727818146</v>
+        <v>0.4432192830528932</v>
       </c>
       <c r="P7">
-        <v>0.5827022703831348</v>
+        <v>0.4476732650437067</v>
       </c>
       <c r="Q7">
-        <v>2508.406516689801</v>
+        <v>1742.365786823922</v>
       </c>
       <c r="R7">
-        <v>22575.65865020821</v>
+        <v>15681.29208141529</v>
       </c>
       <c r="S7">
-        <v>0.1622267323362179</v>
+        <v>0.1358022869770756</v>
       </c>
       <c r="T7">
-        <v>0.1797306232422212</v>
+        <v>0.1427662472379607</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>605.249321</v>
       </c>
       <c r="I8">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J8">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4136063333333333</v>
+        <v>0.4136063333333334</v>
       </c>
       <c r="N8">
         <v>1.240819</v>
       </c>
       <c r="O8">
-        <v>0.01818485587278827</v>
+        <v>0.02122655662966309</v>
       </c>
       <c r="P8">
-        <v>0.01938425107144854</v>
+        <v>0.02143986571744531</v>
       </c>
       <c r="Q8">
-        <v>83.44498413709988</v>
+        <v>83.44498413709989</v>
       </c>
       <c r="R8">
-        <v>751.004857233899</v>
+        <v>751.0048572338991</v>
       </c>
       <c r="S8">
-        <v>0.005396656011033354</v>
+        <v>0.006503812097481882</v>
       </c>
       <c r="T8">
-        <v>0.005978942769288334</v>
+        <v>0.006837328491051698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>605.249321</v>
       </c>
       <c r="I9">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J9">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.416139333333334</v>
+        <v>4.863921666666666</v>
       </c>
       <c r="N9">
-        <v>10.248418</v>
+        <v>14.591765</v>
       </c>
       <c r="O9">
-        <v>0.150195962710185</v>
+        <v>0.2496197480045324</v>
       </c>
       <c r="P9">
-        <v>0.1601022450471443</v>
+        <v>0.2521282170731737</v>
       </c>
       <c r="Q9">
-        <v>689.2053373137976</v>
+        <v>981.2950953823961</v>
       </c>
       <c r="R9">
-        <v>6202.848035824179</v>
+        <v>8831.655858441565</v>
       </c>
       <c r="S9">
-        <v>0.04457313000790803</v>
+        <v>0.07648343370839156</v>
       </c>
       <c r="T9">
-        <v>0.04938246810996964</v>
+        <v>0.08040551488108334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>605.249321</v>
       </c>
       <c r="I10">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J10">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.221938</v>
+        <v>0.581589</v>
       </c>
       <c r="N10">
-        <v>8.443875999999999</v>
+        <v>1.163178</v>
       </c>
       <c r="O10">
-        <v>0.185624174115277</v>
+        <v>0.02984754064135654</v>
       </c>
       <c r="P10">
-        <v>0.1319114330133392</v>
+        <v>0.02009832225770769</v>
       </c>
       <c r="Q10">
-        <v>851.7750359346993</v>
+        <v>117.335449117023</v>
       </c>
       <c r="R10">
-        <v>5110.650215608196</v>
+        <v>704.012694702138</v>
       </c>
       <c r="S10">
-        <v>0.05508703627018156</v>
+        <v>0.00914527962731645</v>
       </c>
       <c r="T10">
-        <v>0.04068720043371942</v>
+        <v>0.006409500563389609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>605.249321</v>
       </c>
       <c r="I11">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J11">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.259609</v>
+        <v>4.989935666666667</v>
       </c>
       <c r="N11">
-        <v>6.778827</v>
+        <v>14.969807</v>
       </c>
       <c r="O11">
-        <v>0.0993472794836037</v>
+        <v>0.2560868716715548</v>
       </c>
       <c r="P11">
-        <v>0.1058998004849332</v>
+        <v>0.2586603299079663</v>
       </c>
       <c r="Q11">
-        <v>455.875604325163</v>
+        <v>1006.718391361228</v>
       </c>
       <c r="R11">
-        <v>4102.880438926467</v>
+        <v>9060.465522251046</v>
       </c>
       <c r="S11">
-        <v>0.02948294431122122</v>
+        <v>0.07846495892113915</v>
       </c>
       <c r="T11">
-        <v>0.0326640861204628</v>
+        <v>0.08248865298375117</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H12">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I12">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J12">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.43325566666667</v>
+        <v>8.636271333333333</v>
       </c>
       <c r="N12">
-        <v>37.299767</v>
+        <v>25.908814</v>
       </c>
       <c r="O12">
-        <v>0.546647727818146</v>
+        <v>0.4432192830528932</v>
       </c>
       <c r="P12">
-        <v>0.5827022703831348</v>
+        <v>0.4476732650437067</v>
       </c>
       <c r="Q12">
-        <v>1746.455140384401</v>
+        <v>1470.695186757706</v>
       </c>
       <c r="R12">
-        <v>15718.09626345961</v>
+        <v>13236.25668081935</v>
       </c>
       <c r="S12">
-        <v>0.1129488815753179</v>
+        <v>0.114627922172382</v>
       </c>
       <c r="T12">
-        <v>0.125135805842226</v>
+        <v>0.1205060580459778</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H13">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I13">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J13">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4136063333333333</v>
+        <v>0.4136063333333334</v>
       </c>
       <c r="N13">
         <v>1.240819</v>
       </c>
       <c r="O13">
-        <v>0.01818485587278827</v>
+        <v>0.02122655662966309</v>
       </c>
       <c r="P13">
-        <v>0.01938425107144854</v>
+        <v>0.02143986571744531</v>
       </c>
       <c r="Q13">
-        <v>58.09780851544278</v>
+        <v>70.43419783466389</v>
       </c>
       <c r="R13">
-        <v>522.8802766389849</v>
+        <v>633.907780511975</v>
       </c>
       <c r="S13">
-        <v>0.003757372486734419</v>
+        <v>0.005489734256535745</v>
       </c>
       <c r="T13">
-        <v>0.004162784327026625</v>
+        <v>0.005771248596657189</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H14">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I14">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J14">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.416139333333334</v>
+        <v>4.863921666666666</v>
       </c>
       <c r="N14">
-        <v>10.248418</v>
+        <v>14.591765</v>
       </c>
       <c r="O14">
-        <v>0.150195962710185</v>
+        <v>0.2496197480045324</v>
       </c>
       <c r="P14">
-        <v>0.1601022450471443</v>
+        <v>0.2521282170731737</v>
       </c>
       <c r="Q14">
-        <v>479.8529250037412</v>
+        <v>828.291042260736</v>
       </c>
       <c r="R14">
-        <v>4318.676325033671</v>
+        <v>7454.619380346625</v>
       </c>
       <c r="S14">
-        <v>0.03103363490223294</v>
+        <v>0.06455809605093032</v>
       </c>
       <c r="T14">
-        <v>0.0343820926559132</v>
+        <v>0.06786864424142561</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H15">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I15">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J15">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.221938</v>
+        <v>0.581589</v>
       </c>
       <c r="N15">
-        <v>8.443875999999999</v>
+        <v>1.163178</v>
       </c>
       <c r="O15">
-        <v>0.185624174115277</v>
+        <v>0.02984754064135654</v>
       </c>
       <c r="P15">
-        <v>0.1319114330133392</v>
+        <v>0.02009832225770769</v>
       </c>
       <c r="Q15">
-        <v>593.0405937241567</v>
+        <v>99.04044349207501</v>
       </c>
       <c r="R15">
-        <v>3558.24356234494</v>
+        <v>594.24266095245</v>
       </c>
       <c r="S15">
-        <v>0.03835384616587562</v>
+        <v>0.007719342764394406</v>
       </c>
       <c r="T15">
-        <v>0.02832809190716476</v>
+        <v>0.005410127826993716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H16">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I16">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J16">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.259609</v>
+        <v>4.989935666666667</v>
       </c>
       <c r="N16">
-        <v>6.778827</v>
+        <v>14.969807</v>
       </c>
       <c r="O16">
-        <v>0.0993472794836037</v>
+        <v>0.2560868716715548</v>
       </c>
       <c r="P16">
-        <v>0.1058998004849332</v>
+        <v>0.2586603299079663</v>
       </c>
       <c r="Q16">
-        <v>317.399228255945</v>
+        <v>849.7503244105195</v>
       </c>
       <c r="R16">
-        <v>2856.593054303505</v>
+        <v>7647.752919694675</v>
       </c>
       <c r="S16">
-        <v>0.02052723085488892</v>
+        <v>0.06623066079873745</v>
       </c>
       <c r="T16">
-        <v>0.02274207180195091</v>
+        <v>0.06962697834331918</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H17">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I17">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J17">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.43325566666667</v>
+        <v>8.636271333333333</v>
       </c>
       <c r="N17">
-        <v>37.299767</v>
+        <v>25.908814</v>
       </c>
       <c r="O17">
-        <v>0.546647727818146</v>
+        <v>0.4432192830528932</v>
       </c>
       <c r="P17">
-        <v>0.5827022703831348</v>
+        <v>0.4476732650437067</v>
       </c>
       <c r="Q17">
-        <v>959.960983640088</v>
+        <v>669.078902632436</v>
       </c>
       <c r="R17">
-        <v>5759.765901840527</v>
+        <v>4014.473415794616</v>
       </c>
       <c r="S17">
-        <v>0.06208377011861007</v>
+        <v>0.05214889194491465</v>
       </c>
       <c r="T17">
-        <v>0.04585497731458413</v>
+        <v>0.03654872960939246</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H18">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I18">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J18">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1550,28 +1550,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.4136063333333333</v>
+        <v>0.4136063333333334</v>
       </c>
       <c r="N18">
         <v>1.240819</v>
       </c>
       <c r="O18">
-        <v>0.01818485587278827</v>
+        <v>0.02122655662966309</v>
       </c>
       <c r="P18">
-        <v>0.01938425107144854</v>
+        <v>0.02143986571744531</v>
       </c>
       <c r="Q18">
-        <v>31.93418950202317</v>
+        <v>32.043373922306</v>
       </c>
       <c r="R18">
-        <v>191.605137012139</v>
+        <v>192.260243533836</v>
       </c>
       <c r="S18">
-        <v>0.002065286937443969</v>
+        <v>0.002497502817157013</v>
       </c>
       <c r="T18">
-        <v>0.001525417761899289</v>
+        <v>0.001750383407175517</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H19">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I19">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J19">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.416139333333334</v>
+        <v>4.863921666666666</v>
       </c>
       <c r="N19">
-        <v>10.248418</v>
+        <v>14.591765</v>
       </c>
       <c r="O19">
-        <v>0.150195962710185</v>
+        <v>0.2496197480045324</v>
       </c>
       <c r="P19">
-        <v>0.1601022450471443</v>
+        <v>0.2521282170731737</v>
       </c>
       <c r="Q19">
-        <v>263.7571817549097</v>
+        <v>376.82319668011</v>
       </c>
       <c r="R19">
-        <v>1582.543090529458</v>
+        <v>2260.93918008066</v>
       </c>
       <c r="S19">
-        <v>0.01705802685554109</v>
+        <v>0.02937009684312788</v>
       </c>
       <c r="T19">
-        <v>0.01259903245241118</v>
+        <v>0.02058413301005582</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H20">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I20">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J20">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.221938</v>
+        <v>0.581589</v>
       </c>
       <c r="N20">
-        <v>8.443875999999999</v>
+        <v>1.163178</v>
       </c>
       <c r="O20">
-        <v>0.185624174115277</v>
+        <v>0.02984754064135654</v>
       </c>
       <c r="P20">
-        <v>0.1319114330133392</v>
+        <v>0.02009832225770769</v>
       </c>
       <c r="Q20">
-        <v>325.972204224289</v>
+        <v>45.05751555085801</v>
       </c>
       <c r="R20">
-        <v>1303.888816897156</v>
+        <v>180.230062203432</v>
       </c>
       <c r="S20">
-        <v>0.02108167283567946</v>
+        <v>0.003511842176645095</v>
       </c>
       <c r="T20">
-        <v>0.01038059413151726</v>
+        <v>0.001640857748625386</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H21">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I21">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J21">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.259609</v>
+        <v>4.989935666666667</v>
       </c>
       <c r="N21">
-        <v>6.778827</v>
+        <v>14.969807</v>
       </c>
       <c r="O21">
-        <v>0.0993472794836037</v>
+        <v>0.2560868716715548</v>
       </c>
       <c r="P21">
-        <v>0.1058998004849332</v>
+        <v>0.2586603299079663</v>
       </c>
       <c r="Q21">
-        <v>174.4624687560645</v>
+        <v>386.5858946758181</v>
       </c>
       <c r="R21">
-        <v>1046.774812536387</v>
+        <v>2319.515368054908</v>
       </c>
       <c r="S21">
-        <v>0.01128305002928911</v>
+        <v>0.03013101439839072</v>
       </c>
       <c r="T21">
-        <v>0.008333643432799201</v>
+        <v>0.02111742468596943</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H22">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I22">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J22">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.43325566666667</v>
+        <v>8.636271333333333</v>
       </c>
       <c r="N22">
-        <v>37.299767</v>
+        <v>25.908814</v>
       </c>
       <c r="O22">
-        <v>0.546647727818146</v>
+        <v>0.4432192830528932</v>
       </c>
       <c r="P22">
-        <v>0.5827022703831348</v>
+        <v>0.4476732650437067</v>
       </c>
       <c r="Q22">
-        <v>2359.880659751128</v>
+        <v>1258.733250656441</v>
       </c>
       <c r="R22">
-        <v>21238.92593776015</v>
+        <v>11328.59925590797</v>
       </c>
       <c r="S22">
-        <v>0.1526210865693611</v>
+        <v>0.09810732937130831</v>
       </c>
       <c r="T22">
-        <v>0.1690885504132923</v>
+        <v>0.103138286936542</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H23">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I23">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J23">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1860,28 +1860,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.4136063333333333</v>
+        <v>0.4136063333333334</v>
       </c>
       <c r="N23">
         <v>1.240819</v>
       </c>
       <c r="O23">
-        <v>0.01818485587278827</v>
+        <v>0.02122655662966309</v>
       </c>
       <c r="P23">
-        <v>0.01938425107144854</v>
+        <v>0.02143986571744531</v>
       </c>
       <c r="Q23">
-        <v>78.50410326562454</v>
+        <v>60.28296522358279</v>
       </c>
       <c r="R23">
-        <v>706.5369293906209</v>
+        <v>542.5466870122451</v>
       </c>
       <c r="S23">
-        <v>0.005077113323949397</v>
+        <v>0.004698533801013718</v>
       </c>
       <c r="T23">
-        <v>0.005624922161987525</v>
+        <v>0.004939475271168842</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H24">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I24">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J24">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.416139333333334</v>
+        <v>4.863921666666666</v>
       </c>
       <c r="N24">
-        <v>10.248418</v>
+        <v>14.591765</v>
       </c>
       <c r="O24">
-        <v>0.150195962710185</v>
+        <v>0.2496197480045324</v>
       </c>
       <c r="P24">
-        <v>0.1601022450471443</v>
+        <v>0.2521282170731737</v>
       </c>
       <c r="Q24">
-        <v>648.3966355941402</v>
+        <v>708.9147265198973</v>
       </c>
       <c r="R24">
-        <v>5835.569720347262</v>
+        <v>6380.232538679075</v>
       </c>
       <c r="S24">
-        <v>0.04193389976878403</v>
+        <v>0.05525374858778671</v>
       </c>
       <c r="T24">
-        <v>0.04645847100464441</v>
+        <v>0.05808716853965567</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H25">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I25">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J25">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.221938</v>
+        <v>0.581589</v>
       </c>
       <c r="N25">
-        <v>8.443875999999999</v>
+        <v>1.163178</v>
       </c>
       <c r="O25">
-        <v>0.185624174115277</v>
+        <v>0.02984754064135654</v>
       </c>
       <c r="P25">
-        <v>0.1319114330133392</v>
+        <v>0.02009832225770769</v>
       </c>
       <c r="Q25">
-        <v>801.3403809896472</v>
+        <v>84.76637477686502</v>
       </c>
       <c r="R25">
-        <v>4808.042285937883</v>
+        <v>508.5982486611901</v>
       </c>
       <c r="S25">
-        <v>0.05182526461801827</v>
+        <v>0.006606803026382817</v>
       </c>
       <c r="T25">
-        <v>0.03827806089806376</v>
+        <v>0.004630400539456304</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H26">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I26">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J26">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.259609</v>
+        <v>4.989935666666667</v>
       </c>
       <c r="N26">
-        <v>6.778827</v>
+        <v>14.969807</v>
       </c>
       <c r="O26">
-        <v>0.0993472794836037</v>
+        <v>0.2560868716715548</v>
       </c>
       <c r="P26">
-        <v>0.1058998004849332</v>
+        <v>0.2586603299079663</v>
       </c>
       <c r="Q26">
-        <v>428.8826451140769</v>
+        <v>727.2812189245541</v>
       </c>
       <c r="R26">
-        <v>3859.943806026693</v>
+        <v>6545.530970320985</v>
       </c>
       <c r="S26">
-        <v>0.02773722265894374</v>
+        <v>0.05668525722458453</v>
       </c>
       <c r="T26">
-        <v>0.03073000512127829</v>
+        <v>0.05959208513946856</v>
       </c>
     </row>
   </sheetData>
